--- a/00_HARDWARE_INDEX.xlsx
+++ b/00_HARDWARE_INDEX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAC613-B746-43DB-AC56-79ADB546F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1475B5D-5ECE-4B7C-BA1B-4BCCCC48DF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Board name</t>
   </si>
@@ -157,10 +157,7 @@
     <t>Maybe COTS would be easier? Also maybe just revamp CANLink to have SPI interface and PWM outputs in addition to switch outputs? - Kinda goofed in making it without these interfaces</t>
   </si>
   <si>
-    <t>PE44820B-X EVAL BOARD</t>
-  </si>
-  <si>
-    <t>EWM</t>
+    <t>SDR</t>
   </si>
 </sst>
 </file>
@@ -529,22 +526,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="22.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -569,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -594,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -605,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -616,7 +613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -627,7 +624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -638,7 +635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -652,7 +649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -663,7 +660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -674,7 +671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -685,7 +682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -699,7 +696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -710,7 +707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -724,9 +721,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
@@ -738,7 +735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -750,11 +747,6 @@
       </c>
       <c r="D17" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
